--- a/Assets/Rounding/Tests/测试列表.xlsx
+++ b/Assets/Rounding/Tests/测试列表.xlsx
@@ -16,13 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>当起点为p=（0，0），移动点为pm=（1，0）时，线为p-&gt;pm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当起点为p=（0，0），po=障碍点为（1，0），移动点为pm=（2，1）时，线为p-&gt;po，po-&gt;pm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Box顺时针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box逆时针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当接触到新点时，添加新点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当离开新点时，移除新点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始点不在Box上时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -30,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +82,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,10 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -400,13 +437,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Rounding/Tests/测试列表.xlsx
+++ b/Assets/Rounding/Tests/测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Box顺时针</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,22 @@
   </si>
   <si>
     <t>圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当离开后，继续离开时，移除接触点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转过的Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box顺逆转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针不能移动到图形内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,21 +98,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,12 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,7 +436,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -447,28 +446,48 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
